--- a/data/controles_results/difmedias_dep_vars_2019.xlsx
+++ b/data/controles_results/difmedias_dep_vars_2019.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="112" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="112" uniqueCount="47">
   <si>
     <t/>
   </si>
@@ -63,6 +63,9 @@
     <t>(0.008)</t>
   </si>
   <si>
+    <t>0.208</t>
+  </si>
+  <si>
     <t>0.000</t>
   </si>
   <si>
@@ -96,13 +99,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>0.192</t>
+    <t>0.193</t>
   </si>
   <si>
     <t>(0.014)</t>
   </si>
   <si>
-    <t>0.199</t>
+    <t>0.200</t>
   </si>
   <si>
     <t>0.007</t>
@@ -111,7 +114,7 @@
     <t>(0.006)</t>
   </si>
   <si>
-    <t>0.675</t>
+    <t>0.673</t>
   </si>
   <si>
     <t>(0.016)</t>
@@ -135,7 +138,7 @@
     <t>Mean difference</t>
   </si>
   <si>
-    <t>-0.015</t>
+    <t>-0.014</t>
   </si>
   <si>
     <t>-0.008</t>
@@ -144,7 +147,7 @@
     <t>0.006***</t>
   </si>
   <si>
-    <t>0.164***</t>
+    <t>0.163***</t>
   </si>
   <si>
     <t>-0.006</t>
@@ -214,13 +217,13 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -237,13 +240,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -266,7 +269,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -280,16 +283,16 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -306,7 +309,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -323,19 +326,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -352,7 +355,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -369,19 +372,19 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -392,13 +395,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -415,19 +418,19 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -438,13 +441,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -461,19 +464,19 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -484,13 +487,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -507,19 +510,19 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -530,13 +533,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
